--- a/data/clientes_operadora_saude.xlsx
+++ b/data/clientes_operadora_saude.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.figueira\Google Drive\IGTI\BIGDATA\modelos\Clusterizacao\Desafio\Base_desafio\Aula_pratica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4713e07213999b19/Documentos/Git_Amanda/Operadora_de_saude/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="425" documentId="11_541AE58E1997BB96BF315C1EEE994AE02BD29920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3EB9C92-173C-4441-9AAF-419C5EE9AF91}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$226</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="8">
   <si>
     <t>id_cliente</t>
   </si>
@@ -49,11 +61,14 @@
   <si>
     <t>Feminino</t>
   </si>
+  <si>
+    <t>altura</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,3853 +380,4485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A226"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.87</v>
+      </c>
+      <c r="C2">
         <v>102</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>1.82</v>
       </c>
       <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
         <v>135</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1.9</v>
+      </c>
+      <c r="C4">
         <v>115</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>136</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>140</v>
+      <c r="B5" s="1">
+        <v>1.9</v>
       </c>
       <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
         <v>167</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1.71</v>
+      </c>
+      <c r="C6">
         <v>130</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>158</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>198</v>
+        <v>1.84</v>
       </c>
       <c r="C7">
+        <v>184</v>
+      </c>
+      <c r="D7">
         <v>227</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>114</v>
+        <v>1.76</v>
       </c>
       <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
         <v>131</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>145</v>
+      <c r="B9" s="1">
+        <v>1.83</v>
       </c>
       <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9">
         <v>176</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>191</v>
+        <v>1.76</v>
       </c>
       <c r="C10">
+        <v>112</v>
+      </c>
+      <c r="D10">
         <v>223</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>186</v>
+        <v>1.82</v>
       </c>
       <c r="C11">
+        <v>134</v>
+      </c>
+      <c r="D11">
         <v>221</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>104</v>
+      <c r="B12" s="1">
+        <v>1.78</v>
       </c>
       <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
         <v>116</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>188</v>
+        <v>1.71</v>
       </c>
       <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>222</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>96</v>
+      <c r="B14" s="1">
+        <v>1.64</v>
       </c>
       <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>156</v>
+      <c r="B15" s="1">
+        <v>1.54</v>
       </c>
       <c r="C15">
+        <v>102</v>
+      </c>
+      <c r="D15">
         <v>192</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>125</v>
+      <c r="B16" s="1">
+        <v>1.76</v>
       </c>
       <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="D16">
         <v>152</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>178</v>
+      <c r="B17" s="1">
+        <v>1.7</v>
       </c>
       <c r="C17">
+        <v>102</v>
+      </c>
+      <c r="D17">
         <v>213</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>109</v>
+      <c r="B18" s="1">
+        <v>1.73</v>
       </c>
       <c r="C18">
+        <v>59</v>
+      </c>
+      <c r="D18">
         <v>125</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>168</v>
+        <v>1.89</v>
       </c>
       <c r="C19">
+        <v>138</v>
+      </c>
+      <c r="D19">
         <v>204</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>152</v>
+      <c r="B20" s="1">
+        <v>1.61</v>
       </c>
       <c r="C20">
+        <v>119</v>
+      </c>
+      <c r="D20">
         <v>189</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>133</v>
+      <c r="B21" s="1">
+        <v>1.62</v>
       </c>
       <c r="C21">
+        <v>94</v>
+      </c>
+      <c r="D21">
         <v>163</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>153</v>
+      <c r="B22" s="1">
+        <v>1.57</v>
       </c>
       <c r="C22">
+        <v>83</v>
+      </c>
+      <c r="D22">
         <v>189</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>107</v>
+      <c r="B23" s="1">
+        <v>1.68</v>
       </c>
       <c r="C23">
+        <v>101</v>
+      </c>
+      <c r="D23">
         <v>122</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>199</v>
+        <v>1.87</v>
       </c>
       <c r="C24">
+        <v>89</v>
+      </c>
+      <c r="D24">
         <v>228</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>140</v>
+      <c r="B25" s="1">
+        <v>1.64</v>
       </c>
       <c r="C25">
+        <v>88</v>
+      </c>
+      <c r="D25">
         <v>168</v>
       </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>1.68</v>
+      </c>
+      <c r="C26">
         <v>95</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>183</v>
+      <c r="B27" s="1">
+        <v>1.62</v>
       </c>
       <c r="C27">
+        <v>96</v>
+      </c>
+      <c r="D27">
         <v>218</v>
       </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>108</v>
+      <c r="B28" s="1">
+        <v>1.77</v>
       </c>
       <c r="C28">
+        <v>93</v>
+      </c>
+      <c r="D28">
         <v>123</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>190</v>
+      <c r="B29" s="1">
+        <v>1.64</v>
       </c>
       <c r="C29">
+        <v>84</v>
+      </c>
+      <c r="D29">
         <v>222</v>
       </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>174</v>
+        <v>1.76</v>
       </c>
       <c r="C30">
+        <v>121</v>
+      </c>
+      <c r="D30">
         <v>208</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>1.72</v>
+      </c>
+      <c r="C31">
         <v>149</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>183</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>169</v>
+        <v>1.75</v>
       </c>
       <c r="C32">
+        <v>124</v>
+      </c>
+      <c r="D32">
         <v>204</v>
       </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>138</v>
+        <v>1.6</v>
       </c>
       <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33">
         <v>167</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>188</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
+        <v>1.89</v>
+      </c>
+      <c r="C35">
         <v>109</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>126</v>
       </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>178</v>
+        <v>1.66</v>
       </c>
       <c r="C36">
+        <v>82</v>
+      </c>
+      <c r="D36">
         <v>213</v>
       </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>1.87</v>
       </c>
       <c r="C37">
+        <v>92</v>
+      </c>
+      <c r="D37">
         <v>122</v>
       </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>195</v>
+        <v>1.82</v>
       </c>
       <c r="C38">
+        <v>110</v>
+      </c>
+      <c r="D38">
         <v>225</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
+        <v>1.9</v>
+      </c>
+      <c r="C39">
         <v>96</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>105</v>
       </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>129</v>
+      <c r="B40" s="1">
+        <v>1.52</v>
       </c>
       <c r="C40">
+        <v>81</v>
+      </c>
+      <c r="D40">
         <v>155</v>
       </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>166</v>
+        <v>1.76</v>
       </c>
       <c r="C41">
+        <v>116</v>
+      </c>
+      <c r="D41">
         <v>203</v>
       </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>197</v>
+        <v>1.82</v>
       </c>
       <c r="C42">
+        <v>103</v>
+      </c>
+      <c r="D42">
         <v>225</v>
       </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>177</v>
       </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
+        <v>1.79</v>
+      </c>
+      <c r="C44">
         <v>117</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>139</v>
       </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>193</v>
+        <v>1.56</v>
       </c>
       <c r="C45">
+        <v>84</v>
+      </c>
+      <c r="D45">
         <v>224</v>
       </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>170</v>
+        <v>1.62</v>
       </c>
       <c r="C46">
+        <v>111</v>
+      </c>
+      <c r="D46">
         <v>207</v>
       </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46">
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>130</v>
+      <c r="B47" s="1">
+        <v>1.86</v>
       </c>
       <c r="C47">
+        <v>68</v>
+      </c>
+      <c r="D47">
         <v>158</v>
       </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>183</v>
+        <v>1.89</v>
       </c>
       <c r="C48">
+        <v>130</v>
+      </c>
+      <c r="D48">
         <v>218</v>
       </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>134</v>
+      <c r="B49" s="1">
+        <v>1.63</v>
       </c>
       <c r="C49">
+        <v>63</v>
+      </c>
+      <c r="D49">
         <v>164</v>
       </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>128</v>
+      <c r="B50" s="1">
+        <v>1.73</v>
       </c>
       <c r="C50">
+        <v>67</v>
+      </c>
+      <c r="D50">
         <v>154</v>
       </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>105</v>
+      <c r="B51" s="1">
+        <v>1.69</v>
       </c>
       <c r="C51">
+        <v>83</v>
+      </c>
+      <c r="D51">
         <v>118</v>
       </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>115</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="1"/>
+      <c r="D52">
         <v>138</v>
       </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>166</v>
+        <v>1.6</v>
       </c>
       <c r="C53">
+        <v>76</v>
+      </c>
+      <c r="D53">
         <v>199</v>
       </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53">
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>183</v>
+        <v>1.62</v>
       </c>
       <c r="C54">
+        <v>126</v>
+      </c>
+      <c r="D54">
         <v>219</v>
       </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54">
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
+        <v>1.82</v>
+      </c>
+      <c r="C55">
         <v>149</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>183</v>
       </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>110</v>
+      <c r="B56" s="1">
+        <v>1.5</v>
       </c>
       <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="D56">
         <v>128</v>
       </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>164</v>
+      <c r="B57" s="1">
+        <v>1.7</v>
       </c>
       <c r="C57">
+        <v>66</v>
+      </c>
+      <c r="D57">
         <v>197</v>
       </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>157</v>
+      <c r="B58" s="1">
+        <v>1.72</v>
       </c>
       <c r="C58">
+        <v>61</v>
+      </c>
+      <c r="D58">
         <v>196</v>
       </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>170</v>
+      <c r="B59" s="1">
+        <v>1.62</v>
       </c>
       <c r="C59">
+        <v>89</v>
+      </c>
+      <c r="D59">
         <v>208</v>
       </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
+        <v>1.75</v>
+      </c>
+      <c r="C60">
         <v>124</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>152</v>
       </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60">
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>145</v>
+        <v>1.62</v>
       </c>
       <c r="C61">
+        <v>54</v>
+      </c>
+      <c r="D61">
         <v>175</v>
       </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>113</v>
+      <c r="B62" s="1">
+        <v>1.75</v>
       </c>
       <c r="C62">
+        <v>58</v>
+      </c>
+      <c r="D62">
         <v>129</v>
       </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>150</v>
+      <c r="B63" s="1">
+        <v>1.64</v>
       </c>
       <c r="C63">
+        <v>64</v>
+      </c>
+      <c r="D63">
         <v>185</v>
       </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63">
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
+        <v>1.92</v>
+      </c>
+      <c r="C64">
         <v>100</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>107</v>
       </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64">
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>178</v>
+        <v>1.78</v>
       </c>
       <c r="C65">
+        <v>110</v>
+      </c>
+      <c r="D65">
         <v>211</v>
       </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65">
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>139</v>
+      <c r="B66" s="1">
+        <v>1.67</v>
       </c>
       <c r="C66">
+        <v>78</v>
+      </c>
+      <c r="D66">
         <v>167</v>
       </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>150</v>
+        <v>1.6</v>
       </c>
       <c r="C67">
+        <v>76</v>
+      </c>
+      <c r="D67">
         <v>185</v>
       </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67">
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
+        <v>1.89</v>
+      </c>
+      <c r="C68">
         <v>101</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>110</v>
       </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68">
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>157</v>
+        <v>1.62</v>
       </c>
       <c r="C69">
+        <v>79</v>
+      </c>
+      <c r="D69">
         <v>194</v>
       </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69">
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>187</v>
+        <v>1.71</v>
       </c>
       <c r="C70">
+        <v>94</v>
+      </c>
+      <c r="D70">
         <v>221</v>
       </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>137</v>
+      <c r="B71" s="1">
+        <v>1.73</v>
       </c>
       <c r="C71">
+        <v>80</v>
+      </c>
+      <c r="D71">
         <v>166</v>
       </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71">
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
+        <v>1.89</v>
+      </c>
+      <c r="C72">
         <v>121</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>143</v>
       </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>132</v>
+      <c r="B73" s="1">
+        <v>1.58</v>
       </c>
       <c r="C73">
+        <v>82</v>
+      </c>
+      <c r="D73">
         <v>163</v>
       </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
+        <v>1.86</v>
+      </c>
+      <c r="C74">
         <v>130</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>158</v>
       </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74">
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>156</v>
+      <c r="B75" s="1">
+        <v>1.53</v>
       </c>
       <c r="C75">
+        <v>62</v>
+      </c>
+      <c r="D75">
         <v>191</v>
       </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>180</v>
+        <v>1.78</v>
       </c>
       <c r="C76">
+        <v>97</v>
+      </c>
+      <c r="D76">
         <v>216</v>
       </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76">
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>1.81</v>
       </c>
       <c r="C77">
+        <v>85</v>
+      </c>
+      <c r="D77">
         <v>106</v>
       </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77">
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>122</v>
+      <c r="B78" s="1">
+        <v>1.64</v>
       </c>
       <c r="C78">
+        <v>89</v>
+      </c>
+      <c r="D78">
         <v>146</v>
       </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78">
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>185</v>
+        <v>1.59</v>
       </c>
       <c r="C79">
+        <v>87</v>
+      </c>
+      <c r="D79">
         <v>220</v>
       </c>
-      <c r="D79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>113</v>
+      <c r="B80" s="1">
+        <v>1.68</v>
       </c>
       <c r="C80">
+        <v>56</v>
+      </c>
+      <c r="D80">
         <v>131</v>
       </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>123</v>
+      <c r="B81" s="1">
+        <v>1.62</v>
       </c>
       <c r="C81">
+        <v>64</v>
+      </c>
+      <c r="D81">
         <v>147</v>
       </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81">
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>119</v>
+      <c r="B82" s="1">
+        <v>1.78</v>
       </c>
       <c r="C82">
+        <v>69</v>
+      </c>
+      <c r="D82">
         <v>141</v>
       </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82">
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
+        <v>1.97</v>
+      </c>
+      <c r="C83">
         <v>113</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>130</v>
       </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83">
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>168</v>
+        <v>1.78</v>
       </c>
       <c r="C84">
+        <v>112</v>
+      </c>
+      <c r="D84">
         <v>204</v>
       </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84">
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
+        <v>1.97</v>
+      </c>
+      <c r="C85">
         <v>126</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>152</v>
       </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85">
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>102</v>
+        <v>1.76</v>
       </c>
       <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
         <v>111</v>
       </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86">
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
+        <v>1.6</v>
+      </c>
+      <c r="C87">
         <v>116</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>139</v>
       </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87">
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>144</v>
+        <v>1.57</v>
       </c>
       <c r="C88">
+        <v>81</v>
+      </c>
+      <c r="D88">
         <v>172</v>
       </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="1">
+        <v>1.69</v>
+      </c>
       <c r="C89">
+        <v>63</v>
+      </c>
+      <c r="D89">
         <v>168</v>
       </c>
-      <c r="D89" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89">
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>124</v>
+      <c r="B90" s="1">
+        <v>1.74</v>
       </c>
       <c r="C90">
+        <v>72</v>
+      </c>
+      <c r="D90">
         <v>148</v>
       </c>
-      <c r="D90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90">
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>108</v>
+      <c r="B91" s="1">
+        <v>1.86</v>
       </c>
       <c r="C91">
+        <v>76</v>
+      </c>
+      <c r="D91">
         <v>123</v>
       </c>
-      <c r="D91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91">
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>154</v>
+      <c r="B92" s="1">
+        <v>1.91</v>
       </c>
       <c r="C92">
+        <v>96</v>
+      </c>
+      <c r="D92">
         <v>189</v>
       </c>
-      <c r="D92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92">
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>185</v>
+      <c r="B93" s="1">
+        <v>1.79</v>
       </c>
       <c r="C93">
+        <v>97</v>
+      </c>
+      <c r="D93">
         <v>220</v>
       </c>
-      <c r="D93" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
+        <v>1.81</v>
+      </c>
+      <c r="C94">
         <v>106</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>120</v>
       </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94">
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
+        <v>1.76</v>
+      </c>
+      <c r="C95">
         <v>97</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>106</v>
       </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95">
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>96</v>
+      <c r="B96" s="1">
+        <v>1.62</v>
       </c>
       <c r="C96">
+        <v>61</v>
+      </c>
+      <c r="D96">
         <v>105</v>
       </c>
-      <c r="D96" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96">
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
+        <v>1.82</v>
+      </c>
+      <c r="C97">
         <v>129</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>157</v>
       </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97">
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>124</v>
+        <v>1.75</v>
       </c>
       <c r="C98">
+        <v>94</v>
+      </c>
+      <c r="D98">
         <v>149</v>
       </c>
-      <c r="D98" t="s">
-        <v>5</v>
-      </c>
-      <c r="E98">
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>149</v>
+      <c r="B99" s="1">
+        <v>1.84</v>
       </c>
       <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
         <v>185</v>
       </c>
-      <c r="D99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99">
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>97</v>
+      <c r="B100" s="1">
+        <v>1.76</v>
       </c>
       <c r="C100">
+        <v>62</v>
+      </c>
+      <c r="D100">
         <v>106</v>
       </c>
-      <c r="D100" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100">
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
+        <v>1.84</v>
+      </c>
+      <c r="C101">
         <v>102</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>115</v>
       </c>
-      <c r="D101" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
+        <v>1.78</v>
+      </c>
+      <c r="C102">
         <v>146</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>177</v>
       </c>
-      <c r="D102" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102">
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>199</v>
+        <v>1.76</v>
       </c>
       <c r="C103">
+        <v>91</v>
+      </c>
+      <c r="D103">
         <v>230</v>
       </c>
-      <c r="D103" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103">
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>100</v>
+      <c r="B104" s="1">
+        <v>1.62</v>
       </c>
       <c r="C104">
+        <v>84</v>
+      </c>
+      <c r="D104">
         <v>108</v>
       </c>
-      <c r="D104" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104">
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105">
-        <v>118</v>
+      <c r="B105" s="1">
+        <v>1.75</v>
       </c>
       <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
         <v>140</v>
       </c>
-      <c r="D105" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105">
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>179</v>
+        <v>1.97</v>
       </c>
       <c r="C106">
+        <v>157</v>
+      </c>
+      <c r="D106">
         <v>214</v>
       </c>
-      <c r="D106" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106">
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>179</v>
+        <v>1.84</v>
       </c>
       <c r="C107">
+        <v>113</v>
+      </c>
+      <c r="D107">
         <v>216</v>
       </c>
-      <c r="D107" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107">
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>113</v>
+      <c r="B108" s="1">
+        <v>1.54</v>
       </c>
       <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108">
         <v>130</v>
       </c>
-      <c r="D108" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108">
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>142</v>
+      <c r="B109" s="1">
+        <v>1.65</v>
       </c>
       <c r="C109">
+        <v>61</v>
+      </c>
+      <c r="D109">
         <v>169</v>
       </c>
-      <c r="D109" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109">
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>101</v>
+        <v>1.94</v>
       </c>
       <c r="C110">
+        <v>74</v>
+      </c>
+      <c r="D110">
         <v>110</v>
       </c>
-      <c r="D110" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110">
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>174</v>
+        <v>1.84</v>
       </c>
       <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
         <v>209</v>
       </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111">
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
+        <v>1.77</v>
+      </c>
+      <c r="C112">
         <v>131</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>162</v>
       </c>
-      <c r="D112" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112">
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>179</v>
+        <v>1.77</v>
       </c>
       <c r="C113">
+        <v>116</v>
+      </c>
+      <c r="D113">
         <v>214</v>
       </c>
-      <c r="D113" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113">
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>122</v>
+        <v>1.88</v>
       </c>
       <c r="C114">
+        <v>73</v>
+      </c>
+      <c r="D114">
         <v>145</v>
       </c>
-      <c r="D114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114">
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
+        <v>1.96</v>
+      </c>
+      <c r="C115">
         <v>105</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>116</v>
       </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115">
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>176</v>
+        <v>1.61</v>
       </c>
       <c r="C116">
+        <v>84</v>
+      </c>
+      <c r="D116">
         <v>209</v>
       </c>
-      <c r="D116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
+        <v>1.84</v>
+      </c>
+      <c r="C117">
         <v>103</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>116</v>
       </c>
-      <c r="D117" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117">
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>120</v>
+        <v>1.72</v>
       </c>
       <c r="C118">
+        <v>72</v>
+      </c>
+      <c r="D118">
         <v>139</v>
       </c>
-      <c r="D118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
+        <v>1.82</v>
+      </c>
+      <c r="C119">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>143</v>
       </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119">
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120">
-        <v>143</v>
+      <c r="B120" s="1">
+        <v>1.72</v>
       </c>
       <c r="C120">
+        <v>89</v>
+      </c>
+      <c r="D120">
         <v>168</v>
       </c>
-      <c r="D120" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120">
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
+        <v>1.77</v>
+      </c>
+      <c r="C121">
         <v>134</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>158</v>
       </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121">
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>203</v>
+        <v>1.82</v>
       </c>
       <c r="C122">
+        <v>175</v>
+      </c>
+      <c r="D122">
         <v>232</v>
       </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122">
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>116</v>
+        <v>1.84</v>
       </c>
       <c r="C123">
+        <v>83</v>
+      </c>
+      <c r="D123">
         <v>136</v>
       </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123">
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124">
-        <v>150</v>
+      <c r="B124" s="1">
+        <v>1.82</v>
       </c>
       <c r="C124">
+        <v>104</v>
+      </c>
+      <c r="D124">
         <v>180</v>
       </c>
-      <c r="D124" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124">
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124">
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>192</v>
+        <v>1.64</v>
       </c>
       <c r="C125">
+        <v>92</v>
+      </c>
+      <c r="D125">
         <v>228</v>
       </c>
-      <c r="D125" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125">
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>187</v>
+        <v>1.69</v>
       </c>
       <c r="C126">
+        <v>118</v>
+      </c>
+      <c r="D126">
         <v>222</v>
       </c>
-      <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126">
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127">
-        <v>107</v>
+      <c r="B127" s="1">
+        <v>1.66</v>
       </c>
       <c r="C127">
+        <v>77</v>
+      </c>
+      <c r="D127">
         <v>117</v>
       </c>
-      <c r="D127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127">
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>192</v>
+        <v>1.63</v>
       </c>
       <c r="C128">
+        <v>152</v>
+      </c>
+      <c r="D128">
         <v>224</v>
       </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128">
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>97</v>
+      <c r="B129" s="1">
+        <v>1.85</v>
       </c>
       <c r="C129">
+        <v>90</v>
+      </c>
+      <c r="D129">
         <v>104</v>
       </c>
-      <c r="D129" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129">
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130">
-        <v>157</v>
+      <c r="B130" s="1">
+        <v>1.69</v>
       </c>
       <c r="C130">
+        <v>73</v>
+      </c>
+      <c r="D130">
         <v>195</v>
       </c>
-      <c r="D130" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130">
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>128</v>
+      <c r="B131" s="1">
+        <v>1.71</v>
       </c>
       <c r="C131">
+        <v>86</v>
+      </c>
+      <c r="D131">
         <v>156</v>
       </c>
-      <c r="D131" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131">
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>183</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>213</v>
       </c>
-      <c r="D132" t="s">
-        <v>6</v>
-      </c>
-      <c r="E132">
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133">
-        <v>112</v>
+      <c r="B133" s="1">
+        <v>1.76</v>
       </c>
       <c r="C133">
+        <v>66</v>
+      </c>
+      <c r="D133">
         <v>133</v>
       </c>
-      <c r="D133" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133">
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>173</v>
+        <v>1.69</v>
       </c>
       <c r="C134">
+        <v>120</v>
+      </c>
+      <c r="D134">
         <v>208</v>
       </c>
-      <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134">
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135">
-        <v>156</v>
+      <c r="B135" s="1">
+        <v>1.81</v>
       </c>
       <c r="C135">
+        <v>97</v>
+      </c>
+      <c r="D135">
         <v>195</v>
       </c>
-      <c r="D135" t="s">
-        <v>6</v>
-      </c>
-      <c r="E135">
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135">
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136">
-        <v>137</v>
+      <c r="B136" s="1">
+        <v>1.79</v>
       </c>
       <c r="C136">
+        <v>61</v>
+      </c>
+      <c r="D136">
         <v>163</v>
       </c>
-      <c r="D136" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136">
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136">
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>156</v>
+      <c r="B137" s="1">
+        <v>1.62</v>
       </c>
       <c r="C137">
+        <v>76</v>
+      </c>
+      <c r="D137">
         <v>195</v>
       </c>
-      <c r="D137" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137">
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137">
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>112</v>
+      <c r="B138" s="1">
+        <v>1.6</v>
       </c>
       <c r="C138">
+        <v>72</v>
+      </c>
+      <c r="D138">
         <v>124</v>
       </c>
-      <c r="D138" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138">
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>203</v>
+        <v>1.76</v>
       </c>
       <c r="C139">
+        <v>133</v>
+      </c>
+      <c r="D139">
         <v>231</v>
       </c>
-      <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>141</v>
+      <c r="B140" s="1">
+        <v>1.58</v>
       </c>
       <c r="C140">
+        <v>63</v>
+      </c>
+      <c r="D140">
         <v>172</v>
       </c>
-      <c r="D140" t="s">
-        <v>6</v>
-      </c>
-      <c r="E140">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
+        <v>1.79</v>
+      </c>
+      <c r="C141">
         <v>97</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>104</v>
       </c>
-      <c r="D141" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141">
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>186</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>221</v>
       </c>
-      <c r="D142" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142">
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>113</v>
+      <c r="B143" s="1">
+        <v>1.54</v>
       </c>
       <c r="C143">
+        <v>82</v>
+      </c>
+      <c r="D143">
         <v>128</v>
       </c>
-      <c r="D143" t="s">
-        <v>6</v>
-      </c>
-      <c r="E143">
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>195</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>222</v>
       </c>
-      <c r="D144" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144">
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>175</v>
+        <v>1.82</v>
       </c>
       <c r="C145">
+        <v>142</v>
+      </c>
+      <c r="D145">
         <v>214</v>
       </c>
-      <c r="D145" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145">
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
+        <v>1.71</v>
+      </c>
+      <c r="C146">
         <v>154</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>184</v>
       </c>
-      <c r="D146" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146">
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146">
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>173</v>
+        <v>1.69</v>
       </c>
       <c r="C147">
+        <v>140</v>
+      </c>
+      <c r="D147">
         <v>204</v>
       </c>
-      <c r="D147" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147">
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147">
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>141</v>
+        <v>1.76</v>
       </c>
       <c r="C148">
+        <v>108</v>
+      </c>
+      <c r="D148">
         <v>171</v>
       </c>
-      <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148">
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148">
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>152</v>
+        <v>1.69</v>
       </c>
       <c r="C149">
+        <v>84</v>
+      </c>
+      <c r="D149">
         <v>195</v>
       </c>
-      <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149">
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
+        <v>1.82</v>
+      </c>
+      <c r="C150">
         <v>114</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>132</v>
       </c>
-      <c r="D150" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150">
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>181</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>214</v>
       </c>
-      <c r="D151" t="s">
-        <v>6</v>
-      </c>
-      <c r="E151">
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151">
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
+        <v>1.63</v>
+      </c>
+      <c r="C152">
         <v>111</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>123</v>
       </c>
-      <c r="D152" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152">
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>200</v>
+        <v>1.7</v>
       </c>
       <c r="C153">
+        <v>141</v>
+      </c>
+      <c r="D153">
         <v>233</v>
       </c>
-      <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153">
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153">
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>100</v>
+        <v>1.72</v>
       </c>
       <c r="C154">
+        <v>63</v>
+      </c>
+      <c r="D154">
         <v>107</v>
       </c>
-      <c r="D154" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154">
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154">
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155">
-        <v>134</v>
+      <c r="B155" s="1">
+        <v>1.57</v>
       </c>
       <c r="C155">
+        <v>53</v>
+      </c>
+      <c r="D155">
         <v>162</v>
       </c>
-      <c r="D155" t="s">
-        <v>6</v>
-      </c>
-      <c r="E155">
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155">
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>167</v>
+        <v>1.72</v>
       </c>
       <c r="C156">
+        <v>148</v>
+      </c>
+      <c r="D156">
         <v>204</v>
       </c>
-      <c r="D156" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156">
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>198</v>
+        <v>1.83</v>
       </c>
       <c r="C157">
+        <v>135</v>
+      </c>
+      <c r="D157">
         <v>227</v>
       </c>
-      <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157">
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
+        <v>1.79</v>
+      </c>
+      <c r="C158">
         <v>151</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>185</v>
       </c>
-      <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158">
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158">
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>121</v>
+        <v>1.83</v>
       </c>
       <c r="C159">
+        <v>68</v>
+      </c>
+      <c r="D159">
         <v>142</v>
       </c>
-      <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159">
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>196</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>225</v>
       </c>
-      <c r="D160" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160">
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160">
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>171</v>
+        <v>1.84</v>
       </c>
       <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161">
         <v>212</v>
       </c>
-      <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161">
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161">
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>135</v>
+      <c r="B162" s="1">
+        <v>1.68</v>
       </c>
       <c r="C162">
+        <v>84</v>
+      </c>
+      <c r="D162">
         <v>161</v>
       </c>
-      <c r="D162" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162">
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>186</v>
+        <v>1.77</v>
       </c>
       <c r="C163">
+        <v>126</v>
+      </c>
+      <c r="D163">
         <v>220</v>
       </c>
-      <c r="D163" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163">
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>138</v>
+      <c r="B164" s="1">
+        <v>1.69</v>
       </c>
       <c r="C164">
+        <v>53</v>
+      </c>
+      <c r="D164">
         <v>168</v>
       </c>
-      <c r="D164" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164">
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164">
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>133</v>
+      <c r="B165" s="1">
+        <v>1.62</v>
       </c>
       <c r="C165">
+        <v>62</v>
+      </c>
+      <c r="D165">
         <v>155</v>
       </c>
-      <c r="D165" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165">
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165">
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>107</v>
+      <c r="B166" s="1">
+        <v>1.86</v>
       </c>
       <c r="C166">
+        <v>60</v>
+      </c>
+      <c r="D166">
         <v>125</v>
       </c>
-      <c r="D166" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166">
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167">
-        <v>120</v>
+      <c r="B167" s="1">
+        <v>1.7</v>
       </c>
       <c r="C167">
+        <v>73</v>
+      </c>
+      <c r="D167">
         <v>144</v>
       </c>
-      <c r="D167" t="s">
-        <v>6</v>
-      </c>
-      <c r="E167">
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>168</v>
+        <v>1.73</v>
       </c>
       <c r="C168">
+        <v>127</v>
+      </c>
+      <c r="D168">
         <v>201</v>
       </c>
-      <c r="D168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168">
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>184</v>
+        <v>1.9</v>
       </c>
       <c r="C169">
+        <v>114</v>
+      </c>
+      <c r="D169">
         <v>222</v>
       </c>
-      <c r="D169" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169">
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
+        <v>1.74</v>
+      </c>
+      <c r="C170">
         <v>154</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>189</v>
       </c>
-      <c r="D170" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170">
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170">
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171">
-        <v>115</v>
+      <c r="B171" s="1">
+        <v>1.61</v>
       </c>
       <c r="C171">
+        <v>67</v>
+      </c>
+      <c r="D171">
         <v>132</v>
       </c>
-      <c r="D171" t="s">
-        <v>6</v>
-      </c>
-      <c r="E171">
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>168</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>204</v>
       </c>
-      <c r="D172" t="s">
-        <v>6</v>
-      </c>
-      <c r="E172">
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>161</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>201</v>
       </c>
-      <c r="D173" t="s">
-        <v>6</v>
-      </c>
-      <c r="E173">
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>171</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>211</v>
       </c>
-      <c r="D174" t="s">
-        <v>6</v>
-      </c>
-      <c r="E174">
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174">
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>129</v>
+        <v>1.73</v>
       </c>
       <c r="C175">
+        <v>69</v>
+      </c>
+      <c r="D175">
         <v>156</v>
       </c>
-      <c r="D175" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175">
+      <c r="E175" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
+        <v>1.9</v>
+      </c>
+      <c r="C176">
         <v>150</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>179</v>
       </c>
-      <c r="D176" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176">
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176">
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177">
-        <v>118</v>
+      <c r="B177" s="1">
+        <v>1.69</v>
       </c>
       <c r="C177">
+        <v>70</v>
+      </c>
+      <c r="D177">
         <v>129</v>
       </c>
-      <c r="D177" t="s">
-        <v>6</v>
-      </c>
-      <c r="E177">
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177">
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178">
-        <v>154</v>
+      <c r="B178" s="1">
+        <v>1.83</v>
       </c>
       <c r="C178">
+        <v>54</v>
+      </c>
+      <c r="D178">
         <v>185</v>
       </c>
-      <c r="D178" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178">
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178">
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
+        <v>1.6</v>
+      </c>
+      <c r="C179">
         <v>103</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>107</v>
       </c>
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179">
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+      <c r="F179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>180</v>
+        <v>1.83</v>
       </c>
       <c r="C180">
+        <v>119</v>
+      </c>
+      <c r="D180">
         <v>213</v>
       </c>
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180">
+      <c r="E180" t="s">
+        <v>5</v>
+      </c>
+      <c r="F180">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181">
-        <v>141</v>
+      <c r="B181" s="1">
+        <v>1.55</v>
       </c>
       <c r="C181">
+        <v>71</v>
+      </c>
+      <c r="D181">
         <v>172</v>
       </c>
-      <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>152</v>
+        <v>1.75</v>
       </c>
       <c r="C182">
+        <v>84</v>
+      </c>
+      <c r="D182">
         <v>193</v>
       </c>
-      <c r="D182" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182">
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182">
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
+        <v>1.95</v>
+      </c>
+      <c r="C183">
         <v>104</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>114</v>
       </c>
-      <c r="D183" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183">
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
+        <v>1.8</v>
+      </c>
+      <c r="C184">
         <v>159</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>202</v>
       </c>
-      <c r="D184" t="s">
-        <v>5</v>
-      </c>
-      <c r="E184">
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184">
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>191</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>222</v>
       </c>
-      <c r="D185" t="s">
-        <v>6</v>
-      </c>
-      <c r="E185">
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186">
-        <v>142</v>
+      <c r="B186" s="1">
+        <v>1.65</v>
       </c>
       <c r="C186">
+        <v>62</v>
+      </c>
+      <c r="D186">
         <v>168</v>
       </c>
-      <c r="D186" t="s">
-        <v>6</v>
-      </c>
-      <c r="E186">
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186">
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
+        <v>1.8</v>
+      </c>
+      <c r="C187">
         <v>123</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>146</v>
       </c>
-      <c r="D187" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187">
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187">
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188">
-        <v>135</v>
+      <c r="B188" s="1">
+        <v>1.83</v>
       </c>
       <c r="C188">
+        <v>90</v>
+      </c>
+      <c r="D188">
         <v>170</v>
       </c>
-      <c r="D188" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188">
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>132</v>
+        <v>1.86</v>
       </c>
       <c r="C189">
+        <v>83</v>
+      </c>
+      <c r="D189">
         <v>165</v>
       </c>
-      <c r="D189" t="s">
-        <v>5</v>
-      </c>
-      <c r="E189">
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189">
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190">
-        <v>158</v>
+      <c r="B190" s="1">
+        <v>1.88</v>
       </c>
       <c r="C190">
+        <v>59</v>
+      </c>
+      <c r="D190">
         <v>196</v>
       </c>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190">
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>181</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>224</v>
       </c>
-      <c r="D191" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191">
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191">
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
+        <v>1.84</v>
+      </c>
+      <c r="C192">
         <v>105</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>108</v>
       </c>
-      <c r="D192" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193">
-        <v>126</v>
+      <c r="B193" s="1">
+        <v>1.79</v>
       </c>
       <c r="C193">
+        <v>80</v>
+      </c>
+      <c r="D193">
         <v>149</v>
       </c>
-      <c r="D193" t="s">
-        <v>6</v>
-      </c>
-      <c r="E193">
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>186</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>224</v>
       </c>
-      <c r="D194" t="s">
-        <v>6</v>
-      </c>
-      <c r="E194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195">
-        <v>116</v>
+      <c r="B195" s="1">
+        <v>1.58</v>
       </c>
       <c r="C195">
+        <v>72</v>
+      </c>
+      <c r="D195">
         <v>136</v>
       </c>
-      <c r="D195" t="s">
-        <v>6</v>
-      </c>
-      <c r="E195">
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195">
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196">
-        <v>124</v>
+      <c r="B196" s="1">
+        <v>1.88</v>
       </c>
       <c r="C196">
+        <v>88</v>
+      </c>
+      <c r="D196">
         <v>152</v>
       </c>
-      <c r="D196" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196">
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197">
-        <v>122</v>
+      <c r="B197" s="1">
+        <v>1.65</v>
       </c>
       <c r="C197">
+        <v>82</v>
+      </c>
+      <c r="D197">
         <v>143</v>
       </c>
-      <c r="D197" t="s">
-        <v>6</v>
-      </c>
-      <c r="E197">
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197">
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
+        <v>1.83</v>
+      </c>
+      <c r="C198">
         <v>115</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>135</v>
       </c>
-      <c r="D198" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198">
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198">
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>173</v>
+        <v>1.84</v>
       </c>
       <c r="C199">
+        <v>122</v>
+      </c>
+      <c r="D199">
         <v>211</v>
       </c>
-      <c r="D199" t="s">
-        <v>5</v>
-      </c>
-      <c r="E199">
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199">
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>128</v>
+        <v>1.74</v>
       </c>
       <c r="C200">
+        <v>81</v>
+      </c>
+      <c r="D200">
         <v>156</v>
       </c>
-      <c r="D200" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200">
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
+        <v>1.72</v>
+      </c>
+      <c r="C201">
         <v>103</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>115</v>
       </c>
-      <c r="D201" t="s">
-        <v>5</v>
-      </c>
-      <c r="E201">
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
+        <v>1.84</v>
+      </c>
+      <c r="C202">
         <v>120</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>143</v>
       </c>
-      <c r="D202" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202">
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>146</v>
+        <v>1.79</v>
       </c>
       <c r="C203">
+        <v>92</v>
+      </c>
+      <c r="D203">
         <v>179</v>
       </c>
-      <c r="D203" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203">
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203">
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204">
-        <v>145</v>
+      <c r="B204" s="1">
+        <v>1.75</v>
       </c>
       <c r="C204">
+        <v>61</v>
+      </c>
+      <c r="D204">
         <v>173</v>
       </c>
-      <c r="D204" t="s">
-        <v>6</v>
-      </c>
-      <c r="E204">
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205">
-        <v>125</v>
+      <c r="B205" s="1">
+        <v>1.56</v>
       </c>
       <c r="C205">
+        <v>69</v>
+      </c>
+      <c r="D205">
         <v>148</v>
       </c>
-      <c r="D205" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205">
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205">
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206">
-        <v>109</v>
+      <c r="B206" s="1">
+        <v>1.75</v>
       </c>
       <c r="C206">
+        <v>53</v>
+      </c>
+      <c r="D206">
         <v>127</v>
       </c>
-      <c r="D206" t="s">
-        <v>6</v>
-      </c>
-      <c r="E206">
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206">
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207">
-        <v>156</v>
+      <c r="B207" s="1">
+        <v>1.76</v>
       </c>
       <c r="C207">
+        <v>52</v>
+      </c>
+      <c r="D207">
         <v>194</v>
       </c>
-      <c r="D207" t="s">
-        <v>6</v>
-      </c>
-      <c r="E207">
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>187</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>225</v>
       </c>
-      <c r="D208" t="s">
-        <v>6</v>
-      </c>
-      <c r="E208">
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208">
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
+        <v>1.96</v>
+      </c>
+      <c r="C209">
         <v>110</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>127</v>
       </c>
-      <c r="D209" t="s">
-        <v>5</v>
-      </c>
-      <c r="E209">
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209">
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
+        <v>1.73</v>
+      </c>
+      <c r="C210">
         <v>100</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>106</v>
       </c>
-      <c r="D210" t="s">
-        <v>5</v>
-      </c>
-      <c r="E210">
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211">
-        <v>97</v>
+      <c r="B211" s="1">
+        <v>1.72</v>
       </c>
       <c r="C211">
+        <v>50</v>
+      </c>
+      <c r="D211">
         <v>112</v>
       </c>
-      <c r="D211" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>133</v>
+        <v>1.72</v>
       </c>
       <c r="C212">
+        <v>93</v>
+      </c>
+      <c r="D212">
         <v>164</v>
       </c>
-      <c r="D212" t="s">
-        <v>5</v>
-      </c>
-      <c r="E212">
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+      <c r="F212">
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
+        <v>1.97</v>
+      </c>
+      <c r="C213">
         <v>128</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>151</v>
       </c>
-      <c r="D213" t="s">
-        <v>5</v>
-      </c>
-      <c r="E213">
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213">
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214">
-        <v>154</v>
+      <c r="B214" s="1">
+        <v>1.68</v>
       </c>
       <c r="C214">
+        <v>59</v>
+      </c>
+      <c r="D214">
         <v>191</v>
       </c>
-      <c r="D214" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214">
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214">
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215">
-        <v>100</v>
+      <c r="B215" s="1">
+        <v>1.69</v>
       </c>
       <c r="C215">
+        <v>57</v>
+      </c>
+      <c r="D215">
         <v>110</v>
       </c>
-      <c r="D215" t="s">
-        <v>6</v>
-      </c>
-      <c r="E215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
+        <v>1.86</v>
+      </c>
+      <c r="C216">
         <v>104</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>116</v>
       </c>
-      <c r="D216" t="s">
-        <v>5</v>
-      </c>
-      <c r="E216">
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>149</v>
+        <v>1.71</v>
       </c>
       <c r="C217">
+        <v>90</v>
+      </c>
+      <c r="D217">
         <v>180</v>
       </c>
-      <c r="D217" t="s">
-        <v>5</v>
-      </c>
-      <c r="E217">
+      <c r="E217" t="s">
+        <v>5</v>
+      </c>
+      <c r="F217">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>203</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>235</v>
       </c>
-      <c r="D218" t="s">
-        <v>6</v>
-      </c>
-      <c r="E218">
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218">
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219">
-        <v>104</v>
+      <c r="B219" s="1">
+        <v>1.64</v>
       </c>
       <c r="C219">
+        <v>71</v>
+      </c>
+      <c r="D219">
         <v>108</v>
       </c>
-      <c r="D219" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219">
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219">
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220">
-        <v>119</v>
+      <c r="B220" s="1">
+        <v>1.71</v>
       </c>
       <c r="C220">
+        <v>83</v>
+      </c>
+      <c r="D220">
         <v>141</v>
       </c>
-      <c r="D220" t="s">
-        <v>6</v>
-      </c>
-      <c r="E220">
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220">
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>181</v>
+        <v>1.86</v>
       </c>
       <c r="C221">
+        <v>153</v>
+      </c>
+      <c r="D221">
         <v>219</v>
       </c>
-      <c r="D221" t="s">
-        <v>5</v>
-      </c>
-      <c r="E221">
+      <c r="E221" t="s">
+        <v>5</v>
+      </c>
+      <c r="F221">
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>180</v>
+        <v>1.72</v>
       </c>
       <c r="C222">
+        <v>96</v>
+      </c>
+      <c r="D222">
         <v>219</v>
       </c>
-      <c r="D222" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222">
+      <c r="E222" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222">
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223">
-        <v>116</v>
+      <c r="B223" s="1">
+        <v>1.87</v>
       </c>
       <c r="C223">
+        <v>83</v>
+      </c>
+      <c r="D223">
         <v>138</v>
       </c>
-      <c r="D223" t="s">
-        <v>6</v>
-      </c>
-      <c r="E223">
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223">
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224">
-        <v>144</v>
+      <c r="B224" s="1">
+        <v>1.85</v>
       </c>
       <c r="C224">
+        <v>76</v>
+      </c>
+      <c r="D224">
         <v>169</v>
       </c>
-      <c r="D224" t="s">
-        <v>6</v>
-      </c>
-      <c r="E224">
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224">
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
+        <v>1.91</v>
+      </c>
+      <c r="C225">
         <v>102</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>116</v>
       </c>
-      <c r="D225" t="s">
-        <v>5</v>
-      </c>
-      <c r="E225">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>5</v>
+      </c>
+      <c r="F225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>176</v>
+        <v>1.67</v>
       </c>
       <c r="C226">
+        <v>102</v>
+      </c>
+      <c r="D226">
         <v>212</v>
       </c>
-      <c r="D226" t="s">
-        <v>5</v>
-      </c>
-      <c r="E226">
+      <c r="E226" t="s">
+        <v>5</v>
+      </c>
+      <c r="F226">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E226"/>
+  <autoFilter ref="A1:F226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/clientes_operadora_saude.xlsx
+++ b/data/clientes_operadora_saude.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4713e07213999b19/Documentos/Git_Amanda/Operadora_de_saude/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="11_541AE58E1997BB96BF315C1EEE994AE02BD29920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3EB9C92-173C-4441-9AAF-419C5EE9AF91}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="11_541AE58E1997BB96BF315C1EEE994AE02BD29920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9547D2EE-FB0F-4AB0-BC6D-E532CB9F09BA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,6 +116,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K47"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,8 +3003,11 @@
       <c r="A132">
         <v>131</v>
       </c>
+      <c r="B132" s="1">
+        <v>1.69</v>
+      </c>
       <c r="C132">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="D132">
         <v>213</v>
@@ -3196,8 +3203,11 @@
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="B142" s="1">
+        <v>1.73</v>
+      </c>
       <c r="C142">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="D142">
         <v>221</v>
@@ -3217,7 +3227,7 @@
         <v>1.54</v>
       </c>
       <c r="C143">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D143">
         <v>128</v>
@@ -3233,8 +3243,11 @@
       <c r="A144">
         <v>143</v>
       </c>
+      <c r="B144" s="1">
+        <v>1.6</v>
+      </c>
       <c r="C144">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="D144">
         <v>222</v>
@@ -3370,8 +3383,11 @@
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="B151">
+        <v>1.64</v>
+      </c>
       <c r="C151">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="D151">
         <v>214</v>
@@ -3547,8 +3563,11 @@
       <c r="A160">
         <v>159</v>
       </c>
+      <c r="B160">
+        <v>1.61</v>
+      </c>
       <c r="C160">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="D160">
         <v>225</v>
@@ -3784,8 +3803,11 @@
       <c r="A172">
         <v>171</v>
       </c>
+      <c r="B172">
+        <v>1.72</v>
+      </c>
       <c r="C172">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D172">
         <v>204</v>
@@ -3801,8 +3823,11 @@
       <c r="A173">
         <v>172</v>
       </c>
+      <c r="B173">
+        <v>1.69</v>
+      </c>
       <c r="C173">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="D173">
         <v>201</v>
@@ -3818,8 +3843,11 @@
       <c r="A174">
         <v>173</v>
       </c>
+      <c r="B174">
+        <v>1.78</v>
+      </c>
       <c r="C174">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D174">
         <v>211</v>
@@ -4035,8 +4063,11 @@
       <c r="A185">
         <v>184</v>
       </c>
+      <c r="B185">
+        <v>1.68</v>
+      </c>
       <c r="C185">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="D185">
         <v>222</v>
@@ -4152,8 +4183,11 @@
       <c r="A191">
         <v>190</v>
       </c>
+      <c r="B191">
+        <v>1.56</v>
+      </c>
       <c r="C191">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D191">
         <v>224</v>
@@ -4209,8 +4243,11 @@
       <c r="A194">
         <v>193</v>
       </c>
+      <c r="B194">
+        <v>1.82</v>
+      </c>
       <c r="C194">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="D194">
         <v>224</v>
@@ -4486,8 +4523,11 @@
       <c r="A208">
         <v>207</v>
       </c>
+      <c r="B208" s="1">
+        <v>1.84</v>
+      </c>
       <c r="C208">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D208">
         <v>225</v>
@@ -4683,8 +4723,11 @@
       <c r="A218">
         <v>217</v>
       </c>
+      <c r="B218">
+        <v>1.75</v>
+      </c>
       <c r="C218">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="D218">
         <v>235</v>

--- a/data/clientes_operadora_saude.xlsx
+++ b/data/clientes_operadora_saude.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4713e07213999b19/Documentos/Git_Amanda/Operadora_de_saude/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="11_541AE58E1997BB96BF315C1EEE994AE02BD29920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9547D2EE-FB0F-4AB0-BC6D-E532CB9F09BA}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="11_541AE58E1997BB96BF315C1EEE994AE02BD29920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8A01CC-DC7A-4D80-B185-B857F70B0ACA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,13 +69,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,18 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I224" sqref="G1:I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +425,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,7 +440,7 @@
         <v>102</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -435,8 +448,11 @@
       <c r="F2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,7 +463,7 @@
         <v>87</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -455,8 +471,11 @@
       <c r="F3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -467,7 +486,7 @@
         <v>115</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -475,8 +494,11 @@
       <c r="F4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -487,7 +509,7 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -495,8 +517,11 @@
       <c r="F5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -507,7 +532,7 @@
         <v>130</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -515,8 +540,11 @@
       <c r="F6">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -527,7 +555,7 @@
         <v>184</v>
       </c>
       <c r="D7">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -535,8 +563,11 @@
       <c r="F7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -547,7 +578,7 @@
         <v>79</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -555,8 +586,11 @@
       <c r="F8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,7 +601,7 @@
         <v>91</v>
       </c>
       <c r="D9">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -575,8 +609,11 @@
       <c r="F9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -595,8 +632,11 @@
       <c r="F10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -615,8 +655,11 @@
       <c r="F11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -635,8 +678,11 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -655,8 +701,11 @@
       <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -667,7 +716,7 @@
         <v>69</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -675,8 +724,11 @@
       <c r="F14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -687,7 +739,7 @@
         <v>102</v>
       </c>
       <c r="D15">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -695,8 +747,11 @@
       <c r="F15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -715,8 +770,11 @@
       <c r="F16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -735,8 +793,11 @@
       <c r="F17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -755,8 +816,11 @@
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -775,13 +839,16 @@
       <c r="F19">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="C20">
         <v>119</v>
@@ -795,13 +862,16 @@
       <c r="F20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="C21">
         <v>94</v>
@@ -815,13 +885,16 @@
       <c r="F21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="C22">
         <v>83</v>
@@ -835,8 +908,11 @@
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -844,7 +920,7 @@
         <v>1.68</v>
       </c>
       <c r="C23">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>122</v>
@@ -855,8 +931,11 @@
       <c r="F23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -864,7 +943,7 @@
         <v>1.87</v>
       </c>
       <c r="C24">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>228</v>
@@ -875,8 +954,11 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -884,7 +966,7 @@
         <v>1.64</v>
       </c>
       <c r="C25">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>168</v>
@@ -895,8 +977,11 @@
       <c r="F25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -904,7 +989,7 @@
         <v>1.68</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D26">
         <v>102</v>
@@ -915,8 +1000,11 @@
       <c r="F26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -924,7 +1012,7 @@
         <v>1.62</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <v>218</v>
@@ -935,8 +1023,11 @@
       <c r="F27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -944,7 +1035,7 @@
         <v>1.77</v>
       </c>
       <c r="C28">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>123</v>
@@ -955,8 +1046,11 @@
       <c r="F28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -964,7 +1058,7 @@
         <v>1.64</v>
       </c>
       <c r="C29">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>222</v>
@@ -975,8 +1069,11 @@
       <c r="F29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -995,8 +1092,11 @@
       <c r="F30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1007,7 +1107,7 @@
         <v>149</v>
       </c>
       <c r="D31">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1015,8 +1115,11 @@
       <c r="F31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1024,7 +1127,7 @@
         <v>1.75</v>
       </c>
       <c r="C32">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>204</v>
@@ -1035,8 +1138,11 @@
       <c r="F32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1055,8 +1161,11 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1069,8 +1178,11 @@
       <c r="F34">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1078,7 +1190,7 @@
         <v>1.89</v>
       </c>
       <c r="C35">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D35">
         <v>126</v>
@@ -1089,8 +1201,11 @@
       <c r="F35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1109,8 +1224,11 @@
       <c r="F36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1129,8 +1247,11 @@
       <c r="F37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1149,8 +1270,11 @@
       <c r="F38">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1169,8 +1293,11 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1178,7 +1305,7 @@
         <v>1.52</v>
       </c>
       <c r="C40">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>155</v>
@@ -1189,8 +1316,11 @@
       <c r="F40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1201,7 +1331,7 @@
         <v>116</v>
       </c>
       <c r="D41">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -1209,8 +1339,11 @@
       <c r="F41">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1221,7 +1354,7 @@
         <v>103</v>
       </c>
       <c r="D42">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1229,8 +1362,11 @@
       <c r="F42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1243,8 +1379,11 @@
       <c r="F43">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1252,7 +1391,7 @@
         <v>1.79</v>
       </c>
       <c r="C44">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>139</v>
@@ -1263,8 +1402,11 @@
       <c r="F44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1272,7 +1414,7 @@
         <v>1.56</v>
       </c>
       <c r="C45">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45">
         <v>224</v>
@@ -1283,8 +1425,11 @@
       <c r="F45">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1292,7 +1437,7 @@
         <v>1.62</v>
       </c>
       <c r="C46">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>207</v>
@@ -1303,8 +1448,11 @@
       <c r="F46">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1315,7 +1463,7 @@
         <v>68</v>
       </c>
       <c r="D47">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1323,8 +1471,11 @@
       <c r="F47">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1332,7 +1483,7 @@
         <v>1.89</v>
       </c>
       <c r="C48">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D48">
         <v>218</v>
@@ -1343,8 +1494,11 @@
       <c r="F48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1363,8 +1517,11 @@
       <c r="F49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1383,8 +1540,11 @@
       <c r="F50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1392,7 +1552,7 @@
         <v>1.69</v>
       </c>
       <c r="C51">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D51">
         <v>118</v>
@@ -1403,8 +1563,11 @@
       <c r="F51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1418,8 +1581,11 @@
       <c r="F52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1438,16 +1604,19 @@
       <c r="F53">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="C54">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D54">
         <v>219</v>
@@ -1458,8 +1627,11 @@
       <c r="F54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1467,7 +1639,7 @@
         <v>1.82</v>
       </c>
       <c r="C55">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D55">
         <v>183</v>
@@ -1478,8 +1650,11 @@
       <c r="F55">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1498,8 +1673,11 @@
       <c r="F56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1507,7 +1685,7 @@
         <v>1.7</v>
       </c>
       <c r="C57">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <v>197</v>
@@ -1518,8 +1696,11 @@
       <c r="F57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1530,7 +1711,7 @@
         <v>61</v>
       </c>
       <c r="D58">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1538,8 +1719,11 @@
       <c r="F58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1558,8 +1742,11 @@
       <c r="F59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1570,7 +1757,7 @@
         <v>124</v>
       </c>
       <c r="D60">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -1578,8 +1765,11 @@
       <c r="F60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1598,8 +1788,11 @@
       <c r="F61">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1618,8 +1811,11 @@
       <c r="F62">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1638,8 +1834,11 @@
       <c r="F63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1658,8 +1857,11 @@
       <c r="F64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1678,8 +1880,11 @@
       <c r="F65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1698,8 +1903,11 @@
       <c r="F66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1718,8 +1926,11 @@
       <c r="F67">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1738,8 +1949,11 @@
       <c r="F68">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1758,8 +1972,11 @@
       <c r="F69">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1778,8 +1995,11 @@
       <c r="F70">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1798,8 +2018,11 @@
       <c r="F71">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1818,8 +2041,11 @@
       <c r="F72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1838,8 +2064,11 @@
       <c r="F73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1858,8 +2087,11 @@
       <c r="F74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1878,8 +2110,11 @@
       <c r="F75">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1898,8 +2133,11 @@
       <c r="F76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1918,8 +2156,11 @@
       <c r="F77">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1938,8 +2179,11 @@
       <c r="F78">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1958,8 +2202,11 @@
       <c r="F79">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1978,8 +2225,11 @@
       <c r="F80">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1998,8 +2248,11 @@
       <c r="F81">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2018,8 +2271,11 @@
       <c r="F82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2038,8 +2294,11 @@
       <c r="F83">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2058,8 +2317,11 @@
       <c r="F84">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2078,8 +2340,11 @@
       <c r="F85">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2098,8 +2363,11 @@
       <c r="F86">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2118,8 +2386,11 @@
       <c r="F87">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2138,8 +2409,11 @@
       <c r="F88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2158,8 +2432,11 @@
       <c r="F89">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2178,8 +2455,11 @@
       <c r="F90">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2198,8 +2478,11 @@
       <c r="F91">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2218,8 +2501,11 @@
       <c r="F92">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2238,8 +2524,11 @@
       <c r="F93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2258,8 +2547,11 @@
       <c r="F94">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2278,8 +2570,11 @@
       <c r="F95">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2298,8 +2593,11 @@
       <c r="F96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2318,8 +2616,11 @@
       <c r="F97">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2338,8 +2639,11 @@
       <c r="F98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2358,8 +2662,11 @@
       <c r="F99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2378,8 +2685,11 @@
       <c r="F100">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2398,8 +2708,11 @@
       <c r="F101">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2418,8 +2731,11 @@
       <c r="F102">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2438,8 +2754,11 @@
       <c r="F103">
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2458,8 +2777,11 @@
       <c r="F104">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2478,8 +2800,11 @@
       <c r="F105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2498,8 +2823,11 @@
       <c r="F106">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2518,8 +2846,11 @@
       <c r="F107">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2538,8 +2869,11 @@
       <c r="F108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2558,8 +2892,11 @@
       <c r="F109">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2578,8 +2915,11 @@
       <c r="F110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2598,8 +2938,11 @@
       <c r="F111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2618,8 +2961,11 @@
       <c r="F112">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2638,8 +2984,11 @@
       <c r="F113">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2658,8 +3007,11 @@
       <c r="F114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2678,8 +3030,11 @@
       <c r="F115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2698,8 +3053,11 @@
       <c r="F116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2718,8 +3076,11 @@
       <c r="F117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2738,8 +3099,11 @@
       <c r="F118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2758,8 +3122,11 @@
       <c r="F119">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2778,8 +3145,11 @@
       <c r="F120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2798,8 +3168,11 @@
       <c r="F121">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2818,8 +3191,11 @@
       <c r="F122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2838,8 +3214,11 @@
       <c r="F123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2858,8 +3237,11 @@
       <c r="F124">
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2878,8 +3260,11 @@
       <c r="F125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2898,8 +3283,11 @@
       <c r="F126">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2918,8 +3306,11 @@
       <c r="F127">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2938,8 +3329,11 @@
       <c r="F128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2958,8 +3352,11 @@
       <c r="F129">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2978,8 +3375,11 @@
       <c r="F130">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2998,8 +3398,11 @@
       <c r="F131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3018,8 +3421,11 @@
       <c r="F132">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3038,8 +3444,11 @@
       <c r="F133">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3047,7 +3456,7 @@
         <v>1.69</v>
       </c>
       <c r="C134">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D134">
         <v>208</v>
@@ -3058,8 +3467,11 @@
       <c r="F134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3078,8 +3490,11 @@
       <c r="F135">
         <v>27</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3098,8 +3513,11 @@
       <c r="F136">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3118,8 +3536,11 @@
       <c r="F137">
         <v>25</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3138,8 +3559,11 @@
       <c r="F138">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3147,7 +3571,7 @@
         <v>1.76</v>
       </c>
       <c r="C139">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D139">
         <v>231</v>
@@ -3158,8 +3582,11 @@
       <c r="F139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3178,8 +3605,11 @@
       <c r="F140">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3198,8 +3628,11 @@
       <c r="F141">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3218,8 +3651,11 @@
       <c r="F142">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3238,8 +3674,11 @@
       <c r="F143">
         <v>22</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3258,8 +3697,11 @@
       <c r="F144">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3267,7 +3709,7 @@
         <v>1.82</v>
       </c>
       <c r="C145">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D145">
         <v>214</v>
@@ -3278,8 +3720,11 @@
       <c r="F145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3287,7 +3732,7 @@
         <v>1.71</v>
       </c>
       <c r="C146">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D146">
         <v>184</v>
@@ -3298,8 +3743,11 @@
       <c r="F146">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3307,7 +3755,7 @@
         <v>1.69</v>
       </c>
       <c r="C147">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D147">
         <v>204</v>
@@ -3318,8 +3766,11 @@
       <c r="F147">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3338,8 +3789,11 @@
       <c r="F148">
         <v>23</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3358,8 +3812,11 @@
       <c r="F149">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3378,8 +3835,11 @@
       <c r="F150">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3398,13 +3858,16 @@
       <c r="F151">
         <v>25</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="C152">
         <v>111</v>
@@ -3418,8 +3881,11 @@
       <c r="F152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3427,7 +3893,7 @@
         <v>1.7</v>
       </c>
       <c r="C153">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D153">
         <v>233</v>
@@ -3438,8 +3904,11 @@
       <c r="F153">
         <v>27</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3458,8 +3927,11 @@
       <c r="F154">
         <v>26</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3478,8 +3950,11 @@
       <c r="F155">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3487,7 +3962,7 @@
         <v>1.72</v>
       </c>
       <c r="C156">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="D156">
         <v>204</v>
@@ -3498,8 +3973,11 @@
       <c r="F156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3507,7 +3985,7 @@
         <v>1.83</v>
       </c>
       <c r="C157">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D157">
         <v>227</v>
@@ -3518,8 +3996,11 @@
       <c r="F157">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3527,7 +4008,7 @@
         <v>1.79</v>
       </c>
       <c r="C158">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="D158">
         <v>185</v>
@@ -3538,8 +4019,11 @@
       <c r="F158">
         <v>24</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3558,8 +4042,11 @@
       <c r="F159">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3578,8 +4065,11 @@
       <c r="F160">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3598,8 +4088,11 @@
       <c r="F161">
         <v>11</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3618,8 +4111,11 @@
       <c r="F162">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3638,8 +4134,11 @@
       <c r="F163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3658,8 +4157,11 @@
       <c r="F164">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3678,8 +4180,11 @@
       <c r="F165">
         <v>23</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3698,8 +4203,11 @@
       <c r="F166">
         <v>18</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3718,8 +4226,11 @@
       <c r="F167">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3738,8 +4249,11 @@
       <c r="F168">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3758,8 +4272,11 @@
       <c r="F169">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3778,8 +4295,11 @@
       <c r="F170">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3798,8 +4318,11 @@
       <c r="F171">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3818,8 +4341,11 @@
       <c r="F172">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3838,8 +4364,11 @@
       <c r="F173">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3858,8 +4387,11 @@
       <c r="F174">
         <v>19</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3878,8 +4410,11 @@
       <c r="F175">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3887,7 +4422,7 @@
         <v>1.9</v>
       </c>
       <c r="C176">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="D176">
         <v>179</v>
@@ -3898,8 +4433,11 @@
       <c r="F176">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3918,8 +4456,11 @@
       <c r="F177">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3938,8 +4479,11 @@
       <c r="F178">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3958,8 +4502,11 @@
       <c r="F179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3978,8 +4525,11 @@
       <c r="F180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3998,8 +4548,11 @@
       <c r="F181">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4018,8 +4571,11 @@
       <c r="F182">
         <v>24</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4027,7 +4583,7 @@
         <v>1.95</v>
       </c>
       <c r="C183">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D183">
         <v>114</v>
@@ -4038,8 +4594,11 @@
       <c r="F183">
         <v>18</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4047,7 +4606,7 @@
         <v>1.8</v>
       </c>
       <c r="C184">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D184">
         <v>202</v>
@@ -4058,8 +4617,11 @@
       <c r="F184">
         <v>26</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4078,8 +4640,11 @@
       <c r="F185">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4098,8 +4663,11 @@
       <c r="F186">
         <v>21</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4118,8 +4686,11 @@
       <c r="F187">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4138,8 +4709,11 @@
       <c r="F188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4158,8 +4732,11 @@
       <c r="F189">
         <v>19</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4167,7 +4744,7 @@
         <v>1.88</v>
       </c>
       <c r="C190">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D190">
         <v>196</v>
@@ -4178,8 +4755,11 @@
       <c r="F190">
         <v>15</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4198,8 +4778,11 @@
       <c r="F191">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4210,7 +4793,7 @@
         <v>105</v>
       </c>
       <c r="D192">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -4218,8 +4801,11 @@
       <c r="F192">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4238,8 +4824,11 @@
       <c r="F193">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4258,8 +4847,11 @@
       <c r="F194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4278,8 +4870,11 @@
       <c r="F195">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4298,8 +4893,11 @@
       <c r="F196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4318,8 +4916,11 @@
       <c r="F197">
         <v>15</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4327,7 +4928,7 @@
         <v>1.83</v>
       </c>
       <c r="C198">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D198">
         <v>135</v>
@@ -4338,8 +4939,11 @@
       <c r="F198">
         <v>23</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4358,8 +4962,11 @@
       <c r="F199">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4378,8 +4985,11 @@
       <c r="F200">
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4398,8 +5008,11 @@
       <c r="F201">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4418,8 +5031,11 @@
       <c r="F202">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4438,8 +5054,11 @@
       <c r="F203">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4458,8 +5077,11 @@
       <c r="F204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4478,8 +5100,11 @@
       <c r="F205">
         <v>23</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4498,8 +5123,11 @@
       <c r="F206">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4510,7 +5138,7 @@
         <v>52</v>
       </c>
       <c r="D207">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E207" t="s">
         <v>6</v>
@@ -4518,8 +5146,11 @@
       <c r="F207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4538,8 +5169,11 @@
       <c r="F208">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4558,8 +5192,11 @@
       <c r="F209">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4578,8 +5215,11 @@
       <c r="F210">
         <v>14</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4598,8 +5238,11 @@
       <c r="F211">
         <v>6</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4618,8 +5261,11 @@
       <c r="F212">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4638,8 +5284,11 @@
       <c r="F213">
         <v>14</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4658,8 +5307,11 @@
       <c r="F214">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4678,8 +5330,11 @@
       <c r="F215">
         <v>6</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4687,7 +5342,7 @@
         <v>1.86</v>
       </c>
       <c r="C216">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D216">
         <v>116</v>
@@ -4698,8 +5353,11 @@
       <c r="F216">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4718,8 +5376,11 @@
       <c r="F217">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4738,8 +5399,11 @@
       <c r="F218">
         <v>12</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4758,8 +5422,11 @@
       <c r="F219">
         <v>21</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4778,8 +5445,11 @@
       <c r="F220">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4790,7 +5460,7 @@
         <v>153</v>
       </c>
       <c r="D221">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E221" t="s">
         <v>5</v>
@@ -4798,8 +5468,11 @@
       <c r="F221">
         <v>25</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4818,16 +5491,19 @@
       <c r="F222">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="C223">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D223">
         <v>138</v>
@@ -4838,16 +5514,19 @@
       <c r="F223">
         <v>15</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="C224">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D224">
         <v>169</v>
@@ -4858,6 +5537,9 @@
       <c r="F224">
         <v>18</v>
       </c>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
